--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21895.68274455854</v>
+        <v>21895.68274455856</v>
       </c>
     </row>
     <row r="7">
@@ -26320,10 +26322,10 @@
         <v>36297.99208473348</v>
       </c>
       <c r="E2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="F2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="G2" t="n">
         <v>36297.99208473348</v>
@@ -26335,7 +26337,7 @@
         <v>36297.99208473348</v>
       </c>
       <c r="J2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="K2" t="n">
         <v>36297.99208473348</v>
@@ -26350,10 +26352,10 @@
         <v>36297.99208473348</v>
       </c>
       <c r="O2" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="P2" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473348</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="F4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="H4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="J4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="K4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="L4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="M4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="N4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="O4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="P4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20015.85296822495</v>
+        <v>-20015.85296822494</v>
       </c>
       <c r="C6" t="n">
         <v>-20015.85296822494</v>
       </c>
       <c r="D6" t="n">
-        <v>-20015.85296822495</v>
+        <v>-20015.85296822494</v>
       </c>
       <c r="E6" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="F6" t="n">
-        <v>13611.74703177504</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="G6" t="n">
         <v>13611.74703177506</v>
       </c>
       <c r="H6" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="I6" t="n">
         <v>13611.74703177506</v>
       </c>
       <c r="J6" t="n">
-        <v>13611.74703177504</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="K6" t="n">
         <v>13611.74703177506</v>
       </c>
       <c r="L6" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="M6" t="n">
         <v>13611.74703177506</v>
       </c>
       <c r="N6" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="O6" t="n">
         <v>13611.74703177506</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21895.68274455856</v>
+        <v>-100704.3378340494</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="C2" t="n">
         <v>36297.99208473348</v>
       </c>
       <c r="D2" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473347</v>
       </c>
       <c r="E2" t="n">
         <v>36297.99208473348</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
@@ -26432,31 +26432,31 @@
         <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="H4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="J4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="K4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="L4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="M4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="N4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="O4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="P4" t="n">
         <v>22686.24505295842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.2054699878</v>
       </c>
       <c r="C6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="D6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="E6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="F6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="G6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987808</v>
       </c>
       <c r="H6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="I6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987808</v>
       </c>
       <c r="J6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="K6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987808</v>
       </c>
       <c r="L6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="M6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987808</v>
       </c>
       <c r="N6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="O6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987808</v>
       </c>
       <c r="P6" t="n">
-        <v>13611.74703177506</v>
+        <v>-1041.605469987804</v>
       </c>
     </row>
   </sheetData>
